--- a/data/georgia_census/guria/choxatauri/education_graduates.xlsx
+++ b/data/georgia_census/guria/choxatauri/education_graduates.xlsx
@@ -1813,13 +1813,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82C21049-F3D3-4EC4-99B2-87BE71FF8F3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84CC6255-1FCB-40B8-AEF7-41EF71AB6435}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8E5004C-260B-44BC-8C52-B219EA15FBBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F642B86C-FD9F-4CB8-9B3B-0B970BE809BF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{016F9FB6-737A-46ED-8574-B56F6452A27A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0D31F9-2E4F-4201-8D48-72007EC17391}"/>
 </file>